--- a/Command Coverage.xlsx
+++ b/Command Coverage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="255" windowWidth="23580" windowHeight="11370"/>
+    <workbookView xWindow="600" yWindow="255" windowWidth="23580" windowHeight="11370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Command List v6 LTS" sheetId="2" r:id="rId1"/>
@@ -17,11 +17,11 @@
     <sheet name="Command Check" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Command Check'!$A$1:$C$353</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Command List v6 Feature'!$A$6:$K$358</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Command Check'!$A$1:$C$377</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Command List v6 Feature'!$A$6:$K$382</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Command List v6 LTS'!$A$6:$H$353</definedName>
     <definedName name="CommandsCovered">#REF!</definedName>
-    <definedName name="Feature_Commands">'Command List v6 Feature'!$A$7:$A$358</definedName>
+    <definedName name="Feature_Commands">'Command List v6 Feature'!$A$7:$A$382</definedName>
     <definedName name="LTS_Commands">'Command List v6 LTS'!$A$7:$A$353</definedName>
     <definedName name="StubbedCommands">#REF!</definedName>
   </definedNames>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4451" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4591" uniqueCount="402">
   <si>
     <t>Add-SafeguardAccountGroupMember</t>
   </si>
@@ -1161,6 +1161,81 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Disable-SafeguardTlsLogging</t>
+  </si>
+  <si>
+    <t>Edit-SafeguardSyslogServer</t>
+  </si>
+  <si>
+    <t>Enable-SafeguardTlsLogging</t>
+  </si>
+  <si>
+    <t>Get-SafeguardApplianceSetting</t>
+  </si>
+  <si>
+    <t>Get-SafeguardCoreSetting</t>
+  </si>
+  <si>
+    <t>Get-SafeguardDebugSettings</t>
+  </si>
+  <si>
+    <t>Get-SafeguardDeletedAsset</t>
+  </si>
+  <si>
+    <t>Get-SafeguardDeletedAssetAccount</t>
+  </si>
+  <si>
+    <t>Get-SafeguardDeletedUser</t>
+  </si>
+  <si>
+    <t>Get-SafeguardPurgeSettings</t>
+  </si>
+  <si>
+    <t>Get-SafeguardSyslogServer</t>
+  </si>
+  <si>
+    <t>New-SafeguardSyslogServer</t>
+  </si>
+  <si>
+    <t>Remove-SafeguardDeletedAsset</t>
+  </si>
+  <si>
+    <t>Remove-SafeguardDeletedAssetAccount</t>
+  </si>
+  <si>
+    <t>Remove-SafeguardDeletedUser</t>
+  </si>
+  <si>
+    <t>Remove-SafeguardSyslogServer</t>
+  </si>
+  <si>
+    <t>Reset-SafeguardPurgeSettings</t>
+  </si>
+  <si>
+    <t>Restore-SafeguardDeletedAsset</t>
+  </si>
+  <si>
+    <t>Restore-SafeguardDeletedAssetAccount</t>
+  </si>
+  <si>
+    <t>Restore-SafeguardDeletedUser</t>
+  </si>
+  <si>
+    <t>Set-SafeguardApplianceSetting</t>
+  </si>
+  <si>
+    <t>Set-SafeguardCoreSetting</t>
+  </si>
+  <si>
+    <t>Set-SafeguardDebugSettings</t>
+  </si>
+  <si>
+    <t>Update-SafeguardPurgeSettings</t>
+  </si>
+  <si>
+    <t>6.7.551</t>
   </si>
 </sst>
 </file>
@@ -1560,9 +1635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9729,11 +9804,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K358"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K382"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D358" sqref="D358"/>
+      <selection pane="bottomLeft" activeCell="C358" sqref="C358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9755,8 +9831,8 @@
         <v>351</v>
       </c>
       <c r="B1" s="2">
-        <f>COUNTA(A7:A358)</f>
-        <v>352</v>
+        <f>COUNTA(A7:A382)</f>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -9764,12 +9840,12 @@
         <v>347</v>
       </c>
       <c r="B2" s="2">
-        <f>COUNTIF(C7:C358,"Yes")</f>
-        <v>267</v>
+        <f>COUNTIF(C7:C382,"Yes")</f>
+        <v>290</v>
       </c>
       <c r="C2" s="3">
         <f>B2/B1</f>
-        <v>0.75852272727272729</v>
+        <v>0.77127659574468088</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -9777,8 +9853,8 @@
         <v>352</v>
       </c>
       <c r="B3" s="2">
-        <f>COUNTIF(D7:D358,"Yes")</f>
-        <v>85</v>
+        <f>COUNTIF(D7:D382,"Yes")</f>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -9828,7 +9904,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>71</v>
       </c>
@@ -9865,7 +9941,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>74</v>
       </c>
@@ -9902,7 +9978,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
@@ -9939,7 +10015,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
@@ -9976,7 +10052,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -10010,7 +10086,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
@@ -10044,7 +10120,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
@@ -10081,7 +10157,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>81</v>
       </c>
@@ -10118,7 +10194,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -10155,7 +10231,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -10192,7 +10268,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -10229,7 +10305,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>83</v>
       </c>
@@ -10263,7 +10339,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>84</v>
       </c>
@@ -10302,7 +10378,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -10339,7 +10415,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>85</v>
       </c>
@@ -10376,7 +10452,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>86</v>
       </c>
@@ -10413,7 +10489,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>87</v>
       </c>
@@ -10450,7 +10526,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>88</v>
       </c>
@@ -10487,7 +10563,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>89</v>
       </c>
@@ -10524,7 +10600,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
@@ -10561,7 +10637,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>91</v>
       </c>
@@ -10598,7 +10674,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -10632,7 +10708,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>93</v>
       </c>
@@ -10669,7 +10745,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>94</v>
       </c>
@@ -10706,7 +10782,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
@@ -10743,7 +10819,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>95</v>
       </c>
@@ -10780,7 +10856,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>96</v>
       </c>
@@ -10817,7 +10893,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>97</v>
       </c>
@@ -10854,7 +10930,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>98</v>
       </c>
@@ -10891,7 +10967,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>99</v>
       </c>
@@ -10928,7 +11004,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>100</v>
       </c>
@@ -10965,7 +11041,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>101</v>
       </c>
@@ -11002,7 +11078,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>102</v>
       </c>
@@ -11039,7 +11115,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>103</v>
       </c>
@@ -11073,7 +11149,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>104</v>
       </c>
@@ -11107,7 +11183,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>105</v>
       </c>
@@ -11144,7 +11220,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>106</v>
       </c>
@@ -11181,7 +11257,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
@@ -11218,7 +11294,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>107</v>
       </c>
@@ -11255,7 +11331,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>108</v>
       </c>
@@ -11292,7 +11368,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>109</v>
       </c>
@@ -11326,7 +11402,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>110</v>
       </c>
@@ -11363,7 +11439,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>111</v>
       </c>
@@ -11400,7 +11476,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>112</v>
       </c>
@@ -11437,7 +11513,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>113</v>
       </c>
@@ -11474,7 +11550,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>114</v>
       </c>
@@ -11511,7 +11587,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>115</v>
       </c>
@@ -11548,7 +11624,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>116</v>
       </c>
@@ -11585,7 +11661,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>117</v>
       </c>
@@ -11622,7 +11698,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>118</v>
       </c>
@@ -11656,7 +11732,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>369</v>
       </c>
@@ -11686,7 +11762,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>370</v>
       </c>
@@ -11716,7 +11792,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>119</v>
       </c>
@@ -11753,7 +11829,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>120</v>
       </c>
@@ -11790,7 +11866,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>121</v>
       </c>
@@ -11827,7 +11903,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
@@ -11864,7 +11940,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
@@ -11901,7 +11977,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
@@ -11938,7 +12014,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>123</v>
       </c>
@@ -11975,7 +12051,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>124</v>
       </c>
@@ -12012,7 +12088,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>125</v>
       </c>
@@ -12046,7 +12122,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>126</v>
       </c>
@@ -12080,7 +12156,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>127</v>
       </c>
@@ -12114,7 +12190,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>128</v>
       </c>
@@ -12151,7 +12227,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>129</v>
       </c>
@@ -12188,7 +12264,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>130</v>
       </c>
@@ -12225,7 +12301,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>131</v>
       </c>
@@ -12262,7 +12338,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>132</v>
       </c>
@@ -12299,7 +12375,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>133</v>
       </c>
@@ -12336,7 +12412,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>134</v>
       </c>
@@ -12373,7 +12449,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
@@ -12410,7 +12486,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>136</v>
       </c>
@@ -12447,7 +12523,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>355</v>
       </c>
@@ -12484,7 +12560,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>137</v>
       </c>
@@ -12521,7 +12597,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>138</v>
       </c>
@@ -12558,7 +12634,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>139</v>
       </c>
@@ -12592,7 +12668,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>140</v>
       </c>
@@ -12626,7 +12702,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>141</v>
       </c>
@@ -12663,7 +12739,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>142</v>
       </c>
@@ -12700,7 +12776,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>143</v>
       </c>
@@ -12734,7 +12810,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>144</v>
       </c>
@@ -12771,7 +12847,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>145</v>
       </c>
@@ -12808,7 +12884,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>146</v>
       </c>
@@ -12845,7 +12921,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>147</v>
       </c>
@@ -12882,7 +12958,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>148</v>
       </c>
@@ -12919,7 +12995,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>149</v>
       </c>
@@ -12956,7 +13032,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>150</v>
       </c>
@@ -12993,7 +13069,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>151</v>
       </c>
@@ -13030,7 +13106,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>152</v>
       </c>
@@ -13067,7 +13143,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>153</v>
       </c>
@@ -13104,7 +13180,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>154</v>
       </c>
@@ -13141,7 +13217,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>155</v>
       </c>
@@ -13178,7 +13254,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>156</v>
       </c>
@@ -13212,7 +13288,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>157</v>
       </c>
@@ -13246,7 +13322,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>158</v>
       </c>
@@ -13280,7 +13356,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>159</v>
       </c>
@@ -13314,7 +13390,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>160</v>
       </c>
@@ -13348,7 +13424,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>161</v>
       </c>
@@ -13382,7 +13458,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>162</v>
       </c>
@@ -13419,7 +13495,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>163</v>
       </c>
@@ -13453,7 +13529,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>164</v>
       </c>
@@ -13490,7 +13566,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>165</v>
       </c>
@@ -13527,7 +13603,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>166</v>
       </c>
@@ -13564,7 +13640,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>167</v>
       </c>
@@ -13601,7 +13677,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>168</v>
       </c>
@@ -13638,7 +13714,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>169</v>
       </c>
@@ -13675,7 +13751,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>356</v>
       </c>
@@ -13712,7 +13788,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>357</v>
       </c>
@@ -13749,7 +13825,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>170</v>
       </c>
@@ -13786,7 +13862,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>171</v>
       </c>
@@ -13823,7 +13899,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>172</v>
       </c>
@@ -13860,7 +13936,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>173</v>
       </c>
@@ -13897,7 +13973,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>174</v>
       </c>
@@ -13934,7 +14010,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>175</v>
       </c>
@@ -13971,7 +14047,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>7</v>
       </c>
@@ -14008,7 +14084,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>8</v>
       </c>
@@ -14045,7 +14121,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>9</v>
       </c>
@@ -14082,7 +14158,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>10</v>
       </c>
@@ -14119,7 +14195,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>11</v>
       </c>
@@ -14156,7 +14232,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>176</v>
       </c>
@@ -14193,7 +14269,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>12</v>
       </c>
@@ -14230,7 +14306,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>13</v>
       </c>
@@ -14267,7 +14343,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>177</v>
       </c>
@@ -14304,7 +14380,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>178</v>
       </c>
@@ -14341,7 +14417,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>179</v>
       </c>
@@ -14378,7 +14454,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>180</v>
       </c>
@@ -14415,7 +14491,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>14</v>
       </c>
@@ -14452,7 +14528,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>181</v>
       </c>
@@ -14486,7 +14562,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>15</v>
       </c>
@@ -14523,7 +14599,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>16</v>
       </c>
@@ -14560,7 +14636,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>17</v>
       </c>
@@ -14597,7 +14673,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>18</v>
       </c>
@@ -14634,7 +14710,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>19</v>
       </c>
@@ -14671,7 +14747,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>20</v>
       </c>
@@ -14708,7 +14784,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>21</v>
       </c>
@@ -14745,7 +14821,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>22</v>
       </c>
@@ -14782,7 +14858,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>23</v>
       </c>
@@ -14819,7 +14895,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>24</v>
       </c>
@@ -14856,7 +14932,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>25</v>
       </c>
@@ -14893,7 +14969,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>182</v>
       </c>
@@ -14930,7 +15006,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>183</v>
       </c>
@@ -14967,7 +15043,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>184</v>
       </c>
@@ -15004,7 +15080,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>185</v>
       </c>
@@ -15041,7 +15117,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>186</v>
       </c>
@@ -15078,7 +15154,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>187</v>
       </c>
@@ -15115,7 +15191,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>188</v>
       </c>
@@ -15149,7 +15225,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>189</v>
       </c>
@@ -15183,7 +15259,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>360</v>
       </c>
@@ -15217,7 +15293,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>190</v>
       </c>
@@ -15251,7 +15327,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>26</v>
       </c>
@@ -15288,7 +15364,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>371</v>
       </c>
@@ -15318,7 +15394,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>372</v>
       </c>
@@ -15348,7 +15424,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>191</v>
       </c>
@@ -15382,7 +15458,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>192</v>
       </c>
@@ -15419,7 +15495,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>193</v>
       </c>
@@ -15456,7 +15532,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>358</v>
       </c>
@@ -15493,7 +15569,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>194</v>
       </c>
@@ -15530,7 +15606,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>27</v>
       </c>
@@ -15567,7 +15643,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>28</v>
       </c>
@@ -15601,7 +15677,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>29</v>
       </c>
@@ -15635,7 +15711,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>30</v>
       </c>
@@ -15672,7 +15748,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>31</v>
       </c>
@@ -15709,7 +15785,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>195</v>
       </c>
@@ -15746,7 +15822,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>196</v>
       </c>
@@ -15783,7 +15859,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>197</v>
       </c>
@@ -15820,7 +15896,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>32</v>
       </c>
@@ -15857,7 +15933,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>198</v>
       </c>
@@ -15894,7 +15970,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>199</v>
       </c>
@@ -15931,7 +16007,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>200</v>
       </c>
@@ -15968,7 +16044,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>201</v>
       </c>
@@ -16002,7 +16078,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>202</v>
       </c>
@@ -16039,7 +16115,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>203</v>
       </c>
@@ -16073,7 +16149,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>204</v>
       </c>
@@ -16107,7 +16183,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>33</v>
       </c>
@@ -16144,7 +16220,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>34</v>
       </c>
@@ -16181,7 +16257,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>35</v>
       </c>
@@ -16218,7 +16294,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>36</v>
       </c>
@@ -16255,7 +16331,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>37</v>
       </c>
@@ -16292,7 +16368,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>38</v>
       </c>
@@ -16329,7 +16405,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>39</v>
       </c>
@@ -16366,7 +16442,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>40</v>
       </c>
@@ -16403,7 +16479,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>41</v>
       </c>
@@ -16440,7 +16516,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>42</v>
       </c>
@@ -16477,7 +16553,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>205</v>
       </c>
@@ -16514,7 +16590,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>206</v>
       </c>
@@ -16553,7 +16629,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>207</v>
       </c>
@@ -16587,7 +16663,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>208</v>
       </c>
@@ -16621,7 +16697,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>209</v>
       </c>
@@ -16655,7 +16731,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>210</v>
       </c>
@@ -16694,7 +16770,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>211</v>
       </c>
@@ -16733,7 +16809,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>212</v>
       </c>
@@ -16772,7 +16848,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>213</v>
       </c>
@@ -16806,7 +16882,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>214</v>
       </c>
@@ -16845,7 +16921,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>43</v>
       </c>
@@ -16882,7 +16958,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>44</v>
       </c>
@@ -16919,7 +16995,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>45</v>
       </c>
@@ -16956,7 +17032,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>215</v>
       </c>
@@ -16993,7 +17069,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>216</v>
       </c>
@@ -17030,7 +17106,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>46</v>
       </c>
@@ -17067,7 +17143,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>217</v>
       </c>
@@ -17104,7 +17180,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>47</v>
       </c>
@@ -17141,7 +17217,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>218</v>
       </c>
@@ -17178,7 +17254,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>48</v>
       </c>
@@ -17215,7 +17291,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>49</v>
       </c>
@@ -17252,7 +17328,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>50</v>
       </c>
@@ -17289,7 +17365,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>51</v>
       </c>
@@ -17326,7 +17402,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>219</v>
       </c>
@@ -17363,7 +17439,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>220</v>
       </c>
@@ -17400,7 +17476,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>221</v>
       </c>
@@ -17437,7 +17513,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>52</v>
       </c>
@@ -17474,7 +17550,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>222</v>
       </c>
@@ -17511,7 +17587,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>223</v>
       </c>
@@ -17548,7 +17624,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>224</v>
       </c>
@@ -17585,7 +17661,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>225</v>
       </c>
@@ -17622,7 +17698,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>226</v>
       </c>
@@ -17656,7 +17732,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>227</v>
       </c>
@@ -17693,7 +17769,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>228</v>
       </c>
@@ -17730,7 +17806,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>229</v>
       </c>
@@ -17767,7 +17843,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>230</v>
       </c>
@@ -17804,7 +17880,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>231</v>
       </c>
@@ -17841,7 +17917,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>232</v>
       </c>
@@ -17878,7 +17954,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>233</v>
       </c>
@@ -17912,7 +17988,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>234</v>
       </c>
@@ -17946,7 +18022,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>235</v>
       </c>
@@ -17980,7 +18056,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>236</v>
       </c>
@@ -18017,7 +18093,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>237</v>
       </c>
@@ -18054,7 +18130,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>238</v>
       </c>
@@ -18091,7 +18167,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>239</v>
       </c>
@@ -18128,7 +18204,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>240</v>
       </c>
@@ -18165,7 +18241,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>241</v>
       </c>
@@ -18202,7 +18278,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>242</v>
       </c>
@@ -18239,7 +18315,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>243</v>
       </c>
@@ -18278,7 +18354,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>244</v>
       </c>
@@ -18317,7 +18393,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>245</v>
       </c>
@@ -18354,7 +18430,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>246</v>
       </c>
@@ -18391,7 +18467,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>247</v>
       </c>
@@ -18425,7 +18501,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>248</v>
       </c>
@@ -18462,7 +18538,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>249</v>
       </c>
@@ -18499,7 +18575,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>250</v>
       </c>
@@ -18536,7 +18612,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>53</v>
       </c>
@@ -18573,7 +18649,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>251</v>
       </c>
@@ -18610,7 +18686,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>252</v>
       </c>
@@ -18647,7 +18723,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>54</v>
       </c>
@@ -18684,7 +18760,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>55</v>
       </c>
@@ -18721,7 +18797,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>253</v>
       </c>
@@ -18755,7 +18831,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>56</v>
       </c>
@@ -18792,7 +18868,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>254</v>
       </c>
@@ -18829,7 +18905,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>255</v>
       </c>
@@ -18866,7 +18942,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>256</v>
       </c>
@@ -18900,7 +18976,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>257</v>
       </c>
@@ -18937,7 +19013,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>258</v>
       </c>
@@ -18974,7 +19050,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>259</v>
       </c>
@@ -19011,7 +19087,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>260</v>
       </c>
@@ -19045,7 +19121,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>373</v>
       </c>
@@ -19075,7 +19151,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>374</v>
       </c>
@@ -19105,7 +19181,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
@@ -19139,7 +19215,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
@@ -19176,7 +19252,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
@@ -19213,7 +19289,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
@@ -19250,7 +19326,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
@@ -19287,7 +19363,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
@@ -19324,7 +19400,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
@@ -19361,7 +19437,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
@@ -19398,7 +19474,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
@@ -19435,7 +19511,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
@@ -19472,7 +19548,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
@@ -19509,7 +19585,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
@@ -19546,7 +19622,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
@@ -19580,7 +19656,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>57</v>
       </c>
@@ -19617,7 +19693,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>58</v>
       </c>
@@ -19654,7 +19730,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>274</v>
       </c>
@@ -19691,7 +19767,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>275</v>
       </c>
@@ -19728,7 +19804,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>276</v>
       </c>
@@ -19765,7 +19841,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>59</v>
       </c>
@@ -19802,7 +19878,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>277</v>
       </c>
@@ -19836,7 +19912,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>278</v>
       </c>
@@ -19873,7 +19949,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>279</v>
       </c>
@@ -19910,7 +19986,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>60</v>
       </c>
@@ -19947,7 +20023,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>280</v>
       </c>
@@ -19984,7 +20060,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>61</v>
       </c>
@@ -20021,7 +20097,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>281</v>
       </c>
@@ -20058,7 +20134,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>282</v>
       </c>
@@ -20095,7 +20171,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>283</v>
       </c>
@@ -20132,7 +20208,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>284</v>
       </c>
@@ -20169,7 +20245,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>285</v>
       </c>
@@ -20203,7 +20279,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>286</v>
       </c>
@@ -20237,7 +20313,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>287</v>
       </c>
@@ -20274,7 +20350,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>288</v>
       </c>
@@ -20311,7 +20387,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>289</v>
       </c>
@@ -20345,7 +20421,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>290</v>
       </c>
@@ -20379,7 +20455,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>291</v>
       </c>
@@ -20416,7 +20492,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>292</v>
       </c>
@@ -20453,7 +20529,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>293</v>
       </c>
@@ -20490,7 +20566,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>294</v>
       </c>
@@ -20527,7 +20603,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>295</v>
       </c>
@@ -20561,7 +20637,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>296</v>
       </c>
@@ -20600,7 +20676,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>297</v>
       </c>
@@ -20637,7 +20713,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>62</v>
       </c>
@@ -20674,7 +20750,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>63</v>
       </c>
@@ -20711,7 +20787,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>298</v>
       </c>
@@ -20748,7 +20824,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>299</v>
       </c>
@@ -20785,7 +20861,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>300</v>
       </c>
@@ -20822,7 +20898,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>301</v>
       </c>
@@ -20859,7 +20935,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>302</v>
       </c>
@@ -20896,7 +20972,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>303</v>
       </c>
@@ -20933,7 +21009,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>304</v>
       </c>
@@ -20970,7 +21046,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>305</v>
       </c>
@@ -21004,7 +21080,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>306</v>
       </c>
@@ -21041,7 +21117,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>307</v>
       </c>
@@ -21078,7 +21154,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>308</v>
       </c>
@@ -21115,7 +21191,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>309</v>
       </c>
@@ -21154,7 +21230,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>310</v>
       </c>
@@ -21188,7 +21264,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>311</v>
       </c>
@@ -21222,7 +21298,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>312</v>
       </c>
@@ -21259,7 +21335,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>313</v>
       </c>
@@ -21296,7 +21372,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>314</v>
       </c>
@@ -21333,7 +21409,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>315</v>
       </c>
@@ -21370,7 +21446,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>316</v>
       </c>
@@ -21404,7 +21480,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>317</v>
       </c>
@@ -21441,7 +21517,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>318</v>
       </c>
@@ -21475,7 +21551,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>319</v>
       </c>
@@ -21495,7 +21571,7 @@
         <v>73</v>
       </c>
       <c r="G327" s="5" t="str">
-        <f t="shared" ref="G327:G358" si="5">LEFT($A327,FIND("-",$A327)-1)</f>
+        <f t="shared" ref="G327:G382" si="5">LEFT($A327,FIND("-",$A327)-1)</f>
         <v>Set</v>
       </c>
       <c r="H327" s="10"/>
@@ -21512,7 +21588,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>320</v>
       </c>
@@ -21549,7 +21625,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>361</v>
       </c>
@@ -21583,7 +21659,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>321</v>
       </c>
@@ -21620,7 +21696,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>322</v>
       </c>
@@ -21657,7 +21733,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>323</v>
       </c>
@@ -21691,7 +21767,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>324</v>
       </c>
@@ -21725,7 +21801,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>325</v>
       </c>
@@ -21764,7 +21840,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>326</v>
       </c>
@@ -21801,7 +21877,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>327</v>
       </c>
@@ -21838,7 +21914,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>328</v>
       </c>
@@ -21875,7 +21951,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>64</v>
       </c>
@@ -21912,7 +21988,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>329</v>
       </c>
@@ -21946,7 +22022,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>330</v>
       </c>
@@ -21983,7 +22059,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>331</v>
       </c>
@@ -22020,7 +22096,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>332</v>
       </c>
@@ -22057,7 +22133,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>333</v>
       </c>
@@ -22091,7 +22167,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>334</v>
       </c>
@@ -22128,7 +22204,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>335</v>
       </c>
@@ -22162,7 +22238,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>336</v>
       </c>
@@ -22196,7 +22272,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>359</v>
       </c>
@@ -22233,7 +22309,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>337</v>
       </c>
@@ -22270,7 +22346,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>338</v>
       </c>
@@ -22307,7 +22383,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>339</v>
       </c>
@@ -22344,7 +22420,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>340</v>
       </c>
@@ -22381,7 +22457,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>341</v>
       </c>
@@ -22418,7 +22494,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>342</v>
       </c>
@@ -22455,7 +22531,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>343</v>
       </c>
@@ -22492,7 +22568,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>344</v>
       </c>
@@ -22526,7 +22602,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>345</v>
       </c>
@@ -22563,7 +22639,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>346</v>
       </c>
@@ -22586,6 +22662,7 @@
         <f t="shared" si="5"/>
         <v>Update</v>
       </c>
+      <c r="H357" s="10"/>
       <c r="I357" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(A357,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
         <v/>
@@ -22601,7 +22678,7 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>65</v>
+        <v>377</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>80</v>
@@ -22609,23 +22686,20 @@
       <c r="C358" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D358" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="E358" s="2" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G358" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Wait</v>
+        <v>Disable</v>
       </c>
       <c r="H358" s="10"/>
       <c r="I358" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(A358,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="J358" s="5" t="str">
         <f>IF(I358="",VLOOKUP(A358,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C358)</f>
@@ -22636,8 +22710,833 @@
         <v/>
       </c>
     </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A359" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G359" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Edit</v>
+      </c>
+      <c r="H359" s="10"/>
+      <c r="I359" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A359,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J359" s="5" t="str">
+        <f>IF(I359="",VLOOKUP(A359,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C359)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K359" s="5" t="str">
+        <f>IF(I359="",IF(J359="Yes","",VLOOKUP(A359,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A360" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G360" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Enable</v>
+      </c>
+      <c r="H360" s="10"/>
+      <c r="I360" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A360,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J360" s="5" t="str">
+        <f>IF(I360="",VLOOKUP(A360,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C360)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K360" s="5" t="str">
+        <f>IF(I360="",IF(J360="Yes","",VLOOKUP(A360,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G361" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Get</v>
+      </c>
+      <c r="H361" s="10"/>
+      <c r="I361" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A361,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J361" s="5" t="str">
+        <f>IF(I361="",VLOOKUP(A361,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C361)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K361" s="5" t="str">
+        <f>IF(I361="",IF(J361="Yes","",VLOOKUP(A361,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G362" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Get</v>
+      </c>
+      <c r="H362" s="10"/>
+      <c r="I362" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A362,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J362" s="5" t="str">
+        <f>IF(I362="",VLOOKUP(A362,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C362)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K362" s="5" t="str">
+        <f>IF(I362="",IF(J362="Yes","",VLOOKUP(A362,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G363" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Get</v>
+      </c>
+      <c r="H363" s="10"/>
+      <c r="I363" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A363,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J363" s="5" t="str">
+        <f>IF(I363="",VLOOKUP(A363,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C363)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K363" s="5" t="str">
+        <f>IF(I363="",IF(J363="Yes","",VLOOKUP(A363,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A364" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G364" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Get</v>
+      </c>
+      <c r="H364" s="10"/>
+      <c r="I364" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A364,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J364" s="5" t="str">
+        <f>IF(I364="",VLOOKUP(A364,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C364)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K364" s="5" t="str">
+        <f>IF(I364="",IF(J364="Yes","",VLOOKUP(A364,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A365" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G365" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Get</v>
+      </c>
+      <c r="H365" s="10"/>
+      <c r="I365" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A365,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J365" s="5" t="str">
+        <f>IF(I365="",VLOOKUP(A365,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C365)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K365" s="5" t="str">
+        <f>IF(I365="",IF(J365="Yes","",VLOOKUP(A365,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A366" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G366" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Get</v>
+      </c>
+      <c r="H366" s="10"/>
+      <c r="I366" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A366,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J366" s="5" t="str">
+        <f>IF(I366="",VLOOKUP(A366,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C366)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K366" s="5" t="str">
+        <f>IF(I366="",IF(J366="Yes","",VLOOKUP(A366,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G367" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Get</v>
+      </c>
+      <c r="H367" s="10"/>
+      <c r="I367" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A367,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J367" s="5" t="str">
+        <f>IF(I367="",VLOOKUP(A367,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C367)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K367" s="5" t="str">
+        <f>IF(I367="",IF(J367="Yes","",VLOOKUP(A367,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A368" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G368" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Get</v>
+      </c>
+      <c r="H368" s="10"/>
+      <c r="I368" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A368,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J368" s="5" t="str">
+        <f>IF(I368="",VLOOKUP(A368,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C368)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K368" s="5" t="str">
+        <f>IF(I368="",IF(J368="Yes","",VLOOKUP(A368,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A369" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G369" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>New</v>
+      </c>
+      <c r="H369" s="10"/>
+      <c r="I369" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A369,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J369" s="5" t="str">
+        <f>IF(I369="",VLOOKUP(A369,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C369)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K369" s="5" t="str">
+        <f>IF(I369="",IF(J369="Yes","",VLOOKUP(A369,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A370" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G370" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Remove</v>
+      </c>
+      <c r="H370" s="10"/>
+      <c r="I370" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A370,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J370" s="5" t="str">
+        <f>IF(I370="",VLOOKUP(A370,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C370)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K370" s="5" t="str">
+        <f>IF(I370="",IF(J370="Yes","",VLOOKUP(A370,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A371" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G371" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Remove</v>
+      </c>
+      <c r="H371" s="10"/>
+      <c r="I371" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A371,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J371" s="5" t="str">
+        <f>IF(I371="",VLOOKUP(A371,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C371)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K371" s="5" t="str">
+        <f>IF(I371="",IF(J371="Yes","",VLOOKUP(A371,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A372" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G372" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Remove</v>
+      </c>
+      <c r="H372" s="10"/>
+      <c r="I372" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A372,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J372" s="5" t="str">
+        <f>IF(I372="",VLOOKUP(A372,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C372)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K372" s="5" t="str">
+        <f>IF(I372="",IF(J372="Yes","",VLOOKUP(A372,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A373" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G373" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Remove</v>
+      </c>
+      <c r="H373" s="10"/>
+      <c r="I373" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A373,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J373" s="5" t="str">
+        <f>IF(I373="",VLOOKUP(A373,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C373)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K373" s="5" t="str">
+        <f>IF(I373="",IF(J373="Yes","",VLOOKUP(A373,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G374" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Reset</v>
+      </c>
+      <c r="H374" s="10"/>
+      <c r="I374" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A374,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J374" s="5" t="str">
+        <f>IF(I374="",VLOOKUP(A374,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C374)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K374" s="5" t="str">
+        <f>IF(I374="",IF(J374="Yes","",VLOOKUP(A374,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A375" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G375" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Restore</v>
+      </c>
+      <c r="H375" s="10"/>
+      <c r="I375" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A375,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J375" s="5" t="str">
+        <f>IF(I375="",VLOOKUP(A375,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C375)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K375" s="5" t="str">
+        <f>IF(I375="",IF(J375="Yes","",VLOOKUP(A375,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A376" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G376" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Restore</v>
+      </c>
+      <c r="H376" s="10"/>
+      <c r="I376" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A376,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J376" s="5" t="str">
+        <f>IF(I376="",VLOOKUP(A376,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C376)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K376" s="5" t="str">
+        <f>IF(I376="",IF(J376="Yes","",VLOOKUP(A376,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A377" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G377" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Restore</v>
+      </c>
+      <c r="H377" s="10"/>
+      <c r="I377" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A377,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J377" s="5" t="str">
+        <f>IF(I377="",VLOOKUP(A377,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C377)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K377" s="5" t="str">
+        <f>IF(I377="",IF(J377="Yes","",VLOOKUP(A377,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G378" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Set</v>
+      </c>
+      <c r="H378" s="10"/>
+      <c r="I378" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A378,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J378" s="5" t="str">
+        <f>IF(I378="",VLOOKUP(A378,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C378)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K378" s="5" t="str">
+        <f>IF(I378="",IF(J378="Yes","",VLOOKUP(A378,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G379" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Set</v>
+      </c>
+      <c r="H379" s="10"/>
+      <c r="I379" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A379,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J379" s="5" t="str">
+        <f>IF(I379="",VLOOKUP(A379,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C379)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K379" s="5" t="str">
+        <f>IF(I379="",IF(J379="Yes","",VLOOKUP(A379,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G380" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Set</v>
+      </c>
+      <c r="H380" s="10"/>
+      <c r="I380" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A380,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J380" s="5" t="str">
+        <f>IF(I380="",VLOOKUP(A380,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C380)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K380" s="5" t="str">
+        <f>IF(I380="",IF(J380="Yes","",VLOOKUP(A380,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G381" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Update</v>
+      </c>
+      <c r="H381" s="10"/>
+      <c r="I381" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A381,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J381" s="5" t="str">
+        <f>IF(I381="",VLOOKUP(A381,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C381)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K381" s="5" t="str">
+        <f>IF(I381="",IF(J381="Yes","",VLOOKUP(A381,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G382" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>Wait</v>
+      </c>
+      <c r="H382" s="10"/>
+      <c r="I382" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(A382,'Command List v6 LTS'!$A$6:$A$353,1,FALSE)),"Yes","")</f>
+        <v/>
+      </c>
+      <c r="J382" s="5" t="str">
+        <f>IF(I382="",VLOOKUP(A382,'Command List v6 LTS'!$A$7:$D$353,3,FALSE),C382)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K382" s="5" t="str">
+        <f>IF(I382="",IF(J382="Yes","",VLOOKUP(A382,'Command List v6 LTS'!$A$7:$D$353,4,FALSE)),"")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:K358">
+  <autoFilter ref="A6:K382">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
     <sortState ref="A7:K358">
       <sortCondition ref="B7:B358"/>
       <sortCondition ref="A7:A358"/>
@@ -22655,11 +23554,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C353"/>
+  <dimension ref="A1:C402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A109" sqref="A109"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A379" sqref="A379:A402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -23148,13 +24047,13 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>377</v>
       </c>
       <c r="B38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C38" s="9" t="str">
         <f t="shared" si="1"/>
@@ -23163,7 +24062,7 @@
     </row>
     <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="B39" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23176,7 +24075,7 @@
     </row>
     <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="B40" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23189,7 +24088,7 @@
     </row>
     <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23202,7 +24101,7 @@
     </row>
     <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23215,7 +24114,7 @@
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23228,7 +24127,7 @@
     </row>
     <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23241,7 +24140,7 @@
     </row>
     <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B45" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23254,7 +24153,7 @@
     </row>
     <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B46" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23267,7 +24166,7 @@
     </row>
     <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23280,7 +24179,7 @@
     </row>
     <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B48" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23293,7 +24192,7 @@
     </row>
     <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B49" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23306,7 +24205,7 @@
     </row>
     <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B50" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23319,7 +24218,7 @@
     </row>
     <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B51" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23332,7 +24231,7 @@
     </row>
     <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>369</v>
+        <v>118</v>
       </c>
       <c r="B52" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23345,7 +24244,7 @@
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B53" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23358,7 +24257,7 @@
     </row>
     <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>370</v>
       </c>
       <c r="B54" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23371,7 +24270,7 @@
     </row>
     <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23384,7 +24283,7 @@
     </row>
     <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23397,7 +24296,7 @@
     </row>
     <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23410,7 +24309,7 @@
     </row>
     <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="B58" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23421,13 +24320,13 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>378</v>
       </c>
       <c r="B59" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C59" s="9" t="str">
         <f t="shared" si="1"/>
@@ -23436,7 +24335,7 @@
     </row>
     <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="B60" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23449,7 +24348,7 @@
     </row>
     <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="B61" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23462,7 +24361,7 @@
     </row>
     <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B62" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23475,7 +24374,7 @@
     </row>
     <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B63" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23488,7 +24387,7 @@
     </row>
     <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B64" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23501,7 +24400,7 @@
     </row>
     <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B65" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23514,7 +24413,7 @@
     </row>
     <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B66" s="9" t="str">
         <f t="shared" ref="B66:B129" si="2">IF(ISNA(VLOOKUP($A66,LTS_Commands,1,FALSE)),"Y","")</f>
@@ -23527,7 +24426,7 @@
     </row>
     <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B67" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23538,13 +24437,13 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>379</v>
       </c>
       <c r="B68" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C68" s="9" t="str">
         <f t="shared" si="3"/>
@@ -23553,7 +24452,7 @@
     </row>
     <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B69" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23566,7 +24465,7 @@
     </row>
     <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B70" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23579,7 +24478,7 @@
     </row>
     <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B71" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23592,7 +24491,7 @@
     </row>
     <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B72" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23605,7 +24504,7 @@
     </row>
     <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B73" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23616,13 +24515,13 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>355</v>
+        <v>134</v>
       </c>
       <c r="B74" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Y</v>
+        <v/>
       </c>
       <c r="C74" s="9" t="str">
         <f t="shared" si="3"/>
@@ -23631,7 +24530,7 @@
     </row>
     <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B75" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23644,7 +24543,7 @@
     </row>
     <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B76" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23657,11 +24556,11 @@
     </row>
     <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>355</v>
       </c>
       <c r="B77" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C77" s="9" t="str">
         <f t="shared" si="3"/>
@@ -23670,7 +24569,7 @@
     </row>
     <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B78" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23683,7 +24582,7 @@
     </row>
     <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B79" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23696,7 +24595,7 @@
     </row>
     <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B80" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23709,7 +24608,7 @@
     </row>
     <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B81" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23722,7 +24621,7 @@
     </row>
     <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B82" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23735,7 +24634,7 @@
     </row>
     <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B83" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23748,7 +24647,7 @@
     </row>
     <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B84" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23761,7 +24660,7 @@
     </row>
     <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B85" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23774,7 +24673,7 @@
     </row>
     <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B86" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23787,7 +24686,7 @@
     </row>
     <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B87" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23800,7 +24699,7 @@
     </row>
     <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B88" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23813,7 +24712,7 @@
     </row>
     <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B89" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23826,7 +24725,7 @@
     </row>
     <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B90" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23839,7 +24738,7 @@
     </row>
     <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B91" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23852,7 +24751,7 @@
     </row>
     <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B92" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23865,7 +24764,7 @@
     </row>
     <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B93" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23878,7 +24777,7 @@
     </row>
     <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B94" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23891,7 +24790,7 @@
     </row>
     <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B95" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23904,7 +24803,7 @@
     </row>
     <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B96" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23917,7 +24816,7 @@
     </row>
     <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B97" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23930,7 +24829,7 @@
     </row>
     <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B98" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23943,7 +24842,7 @@
     </row>
     <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B99" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23956,7 +24855,7 @@
     </row>
     <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B100" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23969,7 +24868,7 @@
     </row>
     <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B101" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23982,7 +24881,7 @@
     </row>
     <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B102" s="9" t="str">
         <f t="shared" si="2"/>
@@ -23995,7 +24894,7 @@
     </row>
     <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B103" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24008,7 +24907,7 @@
     </row>
     <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B104" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24021,7 +24920,7 @@
     </row>
     <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B105" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24034,7 +24933,7 @@
     </row>
     <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B106" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24047,7 +24946,7 @@
     </row>
     <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B107" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24058,26 +24957,26 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>356</v>
+        <v>167</v>
       </c>
       <c r="B108" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Y</v>
+        <v/>
       </c>
       <c r="C108" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>357</v>
+        <v>168</v>
       </c>
       <c r="B109" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Y</v>
+        <v/>
       </c>
       <c r="C109" s="9" t="str">
         <f t="shared" si="3"/>
@@ -24086,7 +24985,7 @@
     </row>
     <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B110" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24099,11 +24998,11 @@
     </row>
     <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>356</v>
       </c>
       <c r="B111" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C111" s="9" t="str">
         <f t="shared" si="3"/>
@@ -24112,11 +25011,11 @@
     </row>
     <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>357</v>
       </c>
       <c r="B112" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C112" s="9" t="str">
         <f t="shared" si="3"/>
@@ -24125,7 +25024,7 @@
     </row>
     <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B113" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24138,7 +25037,7 @@
     </row>
     <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B114" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24151,7 +25050,7 @@
     </row>
     <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B115" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24164,7 +25063,7 @@
     </row>
     <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="B116" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24177,7 +25076,7 @@
     </row>
     <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="B117" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24190,7 +25089,7 @@
     </row>
     <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="B118" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24203,7 +25102,7 @@
     </row>
     <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B119" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24216,7 +25115,7 @@
     </row>
     <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B120" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24227,13 +25126,13 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>176</v>
+        <v>380</v>
       </c>
       <c r="B121" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C121" s="9" t="str">
         <f t="shared" si="3"/>
@@ -24242,7 +25141,7 @@
     </row>
     <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B122" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24255,7 +25154,7 @@
     </row>
     <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B123" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24268,7 +25167,7 @@
     </row>
     <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="B124" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24281,7 +25180,7 @@
     </row>
     <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B125" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24294,7 +25193,7 @@
     </row>
     <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="B126" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24307,7 +25206,7 @@
     </row>
     <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B127" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24320,7 +25219,7 @@
     </row>
     <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="B128" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24333,7 +25232,7 @@
     </row>
     <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B129" s="9" t="str">
         <f t="shared" si="2"/>
@@ -24346,7 +25245,7 @@
     </row>
     <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="B130" s="9" t="str">
         <f t="shared" ref="B130:B193" si="4">IF(ISNA(VLOOKUP($A130,LTS_Commands,1,FALSE)),"Y","")</f>
@@ -24359,7 +25258,7 @@
     </row>
     <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="B131" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24372,7 +25271,7 @@
     </row>
     <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B132" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24385,7 +25284,7 @@
     </row>
     <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="B133" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24398,7 +25297,7 @@
     </row>
     <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B134" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24411,7 +25310,7 @@
     </row>
     <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B135" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24424,7 +25323,7 @@
     </row>
     <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B136" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24437,7 +25336,7 @@
     </row>
     <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B137" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24450,7 +25349,7 @@
     </row>
     <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B138" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24463,7 +25362,7 @@
     </row>
     <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B139" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24476,7 +25375,7 @@
     </row>
     <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B140" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24489,7 +25388,7 @@
     </row>
     <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="B141" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24502,7 +25401,7 @@
     </row>
     <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="B142" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24515,7 +25414,7 @@
     </row>
     <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="B143" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24528,7 +25427,7 @@
     </row>
     <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="B144" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24539,13 +25438,13 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>186</v>
+        <v>381</v>
       </c>
       <c r="B145" s="9" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C145" s="9" t="str">
         <f t="shared" si="5"/>
@@ -24554,7 +25453,7 @@
     </row>
     <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B146" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24565,52 +25464,52 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>188</v>
+        <v>382</v>
       </c>
       <c r="B147" s="9" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C147" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>189</v>
+        <v>383</v>
       </c>
       <c r="B148" s="9" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C148" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="B149" s="9" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C149" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>385</v>
       </c>
       <c r="B150" s="9" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C150" s="9" t="str">
         <f t="shared" si="5"/>
@@ -24619,7 +25518,7 @@
     </row>
     <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="B151" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24632,7 +25531,7 @@
     </row>
     <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>371</v>
+        <v>184</v>
       </c>
       <c r="B152" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24645,7 +25544,7 @@
     </row>
     <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>372</v>
+        <v>185</v>
       </c>
       <c r="B153" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24658,7 +25557,7 @@
     </row>
     <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B154" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24671,7 +25570,7 @@
     </row>
     <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B155" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24684,7 +25583,7 @@
     </row>
     <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B156" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24695,13 +25594,13 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>358</v>
+        <v>189</v>
       </c>
       <c r="B157" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>Y</v>
+        <v/>
       </c>
       <c r="C157" s="9" t="str">
         <f t="shared" si="5"/>
@@ -24710,7 +25609,7 @@
     </row>
     <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>194</v>
+        <v>360</v>
       </c>
       <c r="B158" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24723,7 +25622,7 @@
     </row>
     <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="B159" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24736,7 +25635,7 @@
     </row>
     <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B160" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24749,7 +25648,7 @@
     </row>
     <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>29</v>
+        <v>371</v>
       </c>
       <c r="B161" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24762,7 +25661,7 @@
     </row>
     <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>30</v>
+        <v>372</v>
       </c>
       <c r="B162" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24775,7 +25674,7 @@
     </row>
     <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="B163" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24788,7 +25687,7 @@
     </row>
     <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B164" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24801,7 +25700,7 @@
     </row>
     <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B165" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24814,11 +25713,11 @@
     </row>
     <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>197</v>
+        <v>358</v>
       </c>
       <c r="B166" s="9" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C166" s="9" t="str">
         <f t="shared" si="5"/>
@@ -24827,7 +25726,7 @@
     </row>
     <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="B167" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24840,7 +25739,7 @@
     </row>
     <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="B168" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24853,7 +25752,7 @@
     </row>
     <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c r="B169" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24866,7 +25765,7 @@
     </row>
     <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="B170" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24879,7 +25778,7 @@
     </row>
     <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="B171" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24892,7 +25791,7 @@
     </row>
     <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="B172" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24905,7 +25804,7 @@
     </row>
     <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B173" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24918,7 +25817,7 @@
     </row>
     <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B174" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24931,7 +25830,7 @@
     </row>
     <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="B175" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24944,7 +25843,7 @@
     </row>
     <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B176" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24957,7 +25856,7 @@
     </row>
     <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="B177" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24970,7 +25869,7 @@
     </row>
     <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="B178" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24983,7 +25882,7 @@
     </row>
     <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="B179" s="9" t="str">
         <f t="shared" si="4"/>
@@ -24996,7 +25895,7 @@
     </row>
     <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="B180" s="9" t="str">
         <f t="shared" si="4"/>
@@ -25009,7 +25908,7 @@
     </row>
     <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="B181" s="9" t="str">
         <f t="shared" si="4"/>
@@ -25022,7 +25921,7 @@
     </row>
     <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="B182" s="9" t="str">
         <f t="shared" si="4"/>
@@ -25035,7 +25934,7 @@
     </row>
     <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="B183" s="9" t="str">
         <f t="shared" si="4"/>
@@ -25046,13 +25945,13 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>42</v>
+        <v>386</v>
       </c>
       <c r="B184" s="9" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C184" s="9" t="str">
         <f t="shared" si="5"/>
@@ -25061,7 +25960,7 @@
     </row>
     <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="B185" s="9" t="str">
         <f t="shared" si="4"/>
@@ -25074,7 +25973,7 @@
     </row>
     <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="B186" s="9" t="str">
         <f t="shared" si="4"/>
@@ -25087,7 +25986,7 @@
     </row>
     <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="B187" s="9" t="str">
         <f t="shared" si="4"/>
@@ -25100,7 +25999,7 @@
     </row>
     <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="B188" s="9" t="str">
         <f t="shared" si="4"/>
@@ -25113,7 +26012,7 @@
     </row>
     <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="B189" s="9" t="str">
         <f t="shared" si="4"/>
@@ -25126,7 +26025,7 @@
     </row>
     <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="B190" s="9" t="str">
         <f t="shared" si="4"/>
@@ -25139,7 +26038,7 @@
     </row>
     <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="B191" s="9" t="str">
         <f t="shared" si="4"/>
@@ -25152,7 +26051,7 @@
     </row>
     <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="B192" s="9" t="str">
         <f t="shared" si="4"/>
@@ -25165,7 +26064,7 @@
     </row>
     <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="B193" s="9" t="str">
         <f t="shared" si="4"/>
@@ -25178,7 +26077,7 @@
     </row>
     <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="B194" s="9" t="str">
         <f t="shared" ref="B194:B257" si="6">IF(ISNA(VLOOKUP($A194,LTS_Commands,1,FALSE)),"Y","")</f>
@@ -25191,7 +26090,7 @@
     </row>
     <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="B195" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25204,7 +26103,7 @@
     </row>
     <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="B196" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25217,7 +26116,7 @@
     </row>
     <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="B197" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25230,7 +26129,7 @@
     </row>
     <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B198" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25243,7 +26142,7 @@
     </row>
     <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B199" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25256,7 +26155,7 @@
     </row>
     <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="B200" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25269,7 +26168,7 @@
     </row>
     <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B201" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25282,7 +26181,7 @@
     </row>
     <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="B202" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25295,7 +26194,7 @@
     </row>
     <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B203" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25308,7 +26207,7 @@
     </row>
     <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="B204" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25321,7 +26220,7 @@
     </row>
     <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B205" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25334,7 +26233,7 @@
     </row>
     <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B206" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25347,7 +26246,7 @@
     </row>
     <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B207" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25360,7 +26259,7 @@
     </row>
     <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B208" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25373,7 +26272,7 @@
     </row>
     <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B209" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25386,7 +26285,7 @@
     </row>
     <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>221</v>
+        <v>46</v>
       </c>
       <c r="B210" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25399,7 +26298,7 @@
     </row>
     <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="B211" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25410,13 +26309,13 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>222</v>
+        <v>387</v>
       </c>
       <c r="B212" s="9" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C212" s="9" t="str">
         <f t="shared" si="7"/>
@@ -25425,7 +26324,7 @@
     </row>
     <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>223</v>
+        <v>47</v>
       </c>
       <c r="B213" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25438,7 +26337,7 @@
     </row>
     <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B214" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25451,7 +26350,7 @@
     </row>
     <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="B215" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25464,7 +26363,7 @@
     </row>
     <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>226</v>
+        <v>49</v>
       </c>
       <c r="B216" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25477,7 +26376,7 @@
     </row>
     <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="B217" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25490,7 +26389,7 @@
     </row>
     <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>228</v>
+        <v>51</v>
       </c>
       <c r="B218" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25503,7 +26402,7 @@
     </row>
     <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B219" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25516,7 +26415,7 @@
     </row>
     <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B220" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25529,7 +26428,7 @@
     </row>
     <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B221" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25542,7 +26441,7 @@
     </row>
     <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="B222" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25555,7 +26454,7 @@
     </row>
     <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B223" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25568,7 +26467,7 @@
     </row>
     <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B224" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25581,7 +26480,7 @@
     </row>
     <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B225" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25594,7 +26493,7 @@
     </row>
     <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B226" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25607,7 +26506,7 @@
     </row>
     <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B227" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25620,7 +26519,7 @@
     </row>
     <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B228" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25633,7 +26532,7 @@
     </row>
     <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B229" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25646,7 +26545,7 @@
     </row>
     <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B230" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25659,7 +26558,7 @@
     </row>
     <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B231" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25672,7 +26571,7 @@
     </row>
     <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B232" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25685,7 +26584,7 @@
     </row>
     <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B233" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25698,7 +26597,7 @@
     </row>
     <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B234" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25711,7 +26610,7 @@
     </row>
     <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B235" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25724,7 +26623,7 @@
     </row>
     <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B236" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25737,7 +26636,7 @@
     </row>
     <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B237" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25750,7 +26649,7 @@
     </row>
     <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B238" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25763,7 +26662,7 @@
     </row>
     <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B239" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25776,7 +26675,7 @@
     </row>
     <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B240" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25789,7 +26688,7 @@
     </row>
     <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="B241" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25802,7 +26701,7 @@
     </row>
     <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B242" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25815,7 +26714,7 @@
     </row>
     <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B243" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25828,7 +26727,7 @@
     </row>
     <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="B244" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25841,7 +26740,7 @@
     </row>
     <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>55</v>
+        <v>244</v>
       </c>
       <c r="B245" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25854,7 +26753,7 @@
     </row>
     <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B246" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25867,7 +26766,7 @@
     </row>
     <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="B247" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25880,7 +26779,7 @@
     </row>
     <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B248" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25893,7 +26792,7 @@
     </row>
     <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B249" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25906,7 +26805,7 @@
     </row>
     <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B250" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25919,7 +26818,7 @@
     </row>
     <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B251" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25932,7 +26831,7 @@
     </row>
     <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>258</v>
+        <v>53</v>
       </c>
       <c r="B252" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25945,7 +26844,7 @@
     </row>
     <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B253" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25958,7 +26857,7 @@
     </row>
     <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B254" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25971,7 +26870,7 @@
     </row>
     <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>373</v>
+        <v>54</v>
       </c>
       <c r="B255" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25984,7 +26883,7 @@
     </row>
     <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>374</v>
+        <v>55</v>
       </c>
       <c r="B256" s="9" t="str">
         <f t="shared" si="6"/>
@@ -25997,7 +26896,7 @@
     </row>
     <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B257" s="9" t="str">
         <f t="shared" si="6"/>
@@ -26010,7 +26909,7 @@
     </row>
     <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>262</v>
+        <v>56</v>
       </c>
       <c r="B258" s="9" t="str">
         <f t="shared" ref="B258:B321" si="8">IF(ISNA(VLOOKUP($A258,LTS_Commands,1,FALSE)),"Y","")</f>
@@ -26023,7 +26922,7 @@
     </row>
     <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B259" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26036,7 +26935,7 @@
     </row>
     <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B260" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26049,7 +26948,7 @@
     </row>
     <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B261" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26062,7 +26961,7 @@
     </row>
     <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B262" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26075,7 +26974,7 @@
     </row>
     <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B263" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26088,7 +26987,7 @@
     </row>
     <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B264" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26101,7 +27000,7 @@
     </row>
     <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B265" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26114,7 +27013,7 @@
     </row>
     <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>270</v>
+        <v>373</v>
       </c>
       <c r="B266" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26127,7 +27026,7 @@
     </row>
     <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>271</v>
+        <v>374</v>
       </c>
       <c r="B267" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26140,7 +27039,7 @@
     </row>
     <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B268" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26153,7 +27052,7 @@
     </row>
     <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B269" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26166,7 +27065,7 @@
     </row>
     <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>57</v>
+        <v>263</v>
       </c>
       <c r="B270" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26179,7 +27078,7 @@
     </row>
     <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>58</v>
+        <v>264</v>
       </c>
       <c r="B271" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26192,7 +27091,7 @@
     </row>
     <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B272" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26205,7 +27104,7 @@
     </row>
     <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B273" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26218,7 +27117,7 @@
     </row>
     <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B274" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26231,7 +27130,7 @@
     </row>
     <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>59</v>
+        <v>268</v>
       </c>
       <c r="B275" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26244,7 +27143,7 @@
     </row>
     <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B276" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26257,7 +27156,7 @@
     </row>
     <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B277" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26270,7 +27169,7 @@
     </row>
     <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B278" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26283,7 +27182,7 @@
     </row>
     <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>60</v>
+        <v>272</v>
       </c>
       <c r="B279" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26294,13 +27193,13 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>280</v>
+        <v>388</v>
       </c>
       <c r="B280" s="9" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C280" s="9" t="str">
         <f t="shared" si="9"/>
@@ -26309,7 +27208,7 @@
     </row>
     <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="B281" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26322,7 +27221,7 @@
     </row>
     <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>57</v>
       </c>
       <c r="B282" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26335,7 +27234,7 @@
     </row>
     <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>58</v>
       </c>
       <c r="B283" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26348,7 +27247,7 @@
     </row>
     <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B284" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26361,7 +27260,7 @@
     </row>
     <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B285" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26374,7 +27273,7 @@
     </row>
     <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B286" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26387,7 +27286,7 @@
     </row>
     <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>59</v>
       </c>
       <c r="B287" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26400,7 +27299,7 @@
     </row>
     <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B288" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26413,7 +27312,7 @@
     </row>
     <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B289" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26426,7 +27325,7 @@
     </row>
     <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B290" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26439,7 +27338,7 @@
     </row>
     <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="B291" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26452,7 +27351,7 @@
     </row>
     <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B292" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26465,7 +27364,7 @@
     </row>
     <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>292</v>
+        <v>61</v>
       </c>
       <c r="B293" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26478,7 +27377,7 @@
     </row>
     <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B294" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26491,7 +27390,7 @@
     </row>
     <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B295" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26504,7 +27403,7 @@
     </row>
     <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B296" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26517,7 +27416,7 @@
     </row>
     <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B297" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26530,7 +27429,7 @@
     </row>
     <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B298" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26543,7 +27442,7 @@
     </row>
     <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>62</v>
+        <v>286</v>
       </c>
       <c r="B299" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26554,39 +27453,39 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>63</v>
+        <v>389</v>
       </c>
       <c r="B300" s="9" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C300" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="B301" s="9" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C301" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>299</v>
+        <v>391</v>
       </c>
       <c r="B302" s="9" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C302" s="9" t="str">
         <f t="shared" si="9"/>
@@ -26595,7 +27494,7 @@
     </row>
     <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B303" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26608,7 +27507,7 @@
     </row>
     <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B304" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26621,7 +27520,7 @@
     </row>
     <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B305" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26634,7 +27533,7 @@
     </row>
     <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B306" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26647,7 +27546,7 @@
     </row>
     <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B307" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26660,7 +27559,7 @@
     </row>
     <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B308" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26673,7 +27572,7 @@
     </row>
     <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B309" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26686,7 +27585,7 @@
     </row>
     <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B310" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26699,7 +27598,7 @@
     </row>
     <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B311" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26712,7 +27611,7 @@
     </row>
     <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B312" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26725,7 +27624,7 @@
     </row>
     <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B313" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26736,13 +27635,13 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>311</v>
+        <v>392</v>
       </c>
       <c r="B314" s="9" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C314" s="9" t="str">
         <f t="shared" si="9"/>
@@ -26751,7 +27650,7 @@
     </row>
     <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>312</v>
+        <v>62</v>
       </c>
       <c r="B315" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26764,7 +27663,7 @@
     </row>
     <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>313</v>
+        <v>63</v>
       </c>
       <c r="B316" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26777,7 +27676,7 @@
     </row>
     <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B317" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26790,7 +27689,7 @@
     </row>
     <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B318" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26803,7 +27702,7 @@
     </row>
     <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B319" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26816,7 +27715,7 @@
     </row>
     <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B320" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26829,7 +27728,7 @@
     </row>
     <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B321" s="9" t="str">
         <f t="shared" si="8"/>
@@ -26842,20 +27741,20 @@
     </row>
     <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="B322" s="9" t="str">
-        <f t="shared" ref="B322:B353" si="10">IF(ISNA(VLOOKUP($A322,LTS_Commands,1,FALSE)),"Y","")</f>
+        <f t="shared" ref="B322:B377" si="10">IF(ISNA(VLOOKUP($A322,LTS_Commands,1,FALSE)),"Y","")</f>
         <v/>
       </c>
       <c r="C322" s="9" t="str">
-        <f t="shared" ref="C322:C353" si="11">IF(ISNA(VLOOKUP($A322,Feature_Commands,1,FALSE)),"Y","")</f>
+        <f t="shared" ref="C322:C377" si="11">IF(ISNA(VLOOKUP($A322,Feature_Commands,1,FALSE)),"Y","")</f>
         <v/>
       </c>
     </row>
     <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="B323" s="9" t="str">
         <f t="shared" si="10"/>
@@ -26868,7 +27767,7 @@
     </row>
     <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="B324" s="9" t="str">
         <f t="shared" si="10"/>
@@ -26881,7 +27780,7 @@
     </row>
     <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B325" s="9" t="str">
         <f t="shared" si="10"/>
@@ -26894,7 +27793,7 @@
     </row>
     <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B326" s="9" t="str">
         <f t="shared" si="10"/>
@@ -26905,13 +27804,13 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>323</v>
+        <v>393</v>
       </c>
       <c r="B327" s="9" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C327" s="9" t="str">
         <f t="shared" si="11"/>
@@ -26920,7 +27819,7 @@
     </row>
     <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B328" s="9" t="str">
         <f t="shared" si="10"/>
@@ -26933,7 +27832,7 @@
     </row>
     <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B329" s="9" t="str">
         <f t="shared" si="10"/>
@@ -26946,7 +27845,7 @@
     </row>
     <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B330" s="9" t="str">
         <f t="shared" si="10"/>
@@ -26957,39 +27856,39 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="B331" s="9" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C331" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>328</v>
+        <v>395</v>
       </c>
       <c r="B332" s="9" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C332" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>64</v>
+        <v>396</v>
       </c>
       <c r="B333" s="9" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C333" s="9" t="str">
         <f t="shared" si="11"/>
@@ -26998,7 +27897,7 @@
     </row>
     <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B334" s="9" t="str">
         <f t="shared" si="10"/>
@@ -27011,7 +27910,7 @@
     </row>
     <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="B335" s="9" t="str">
         <f t="shared" si="10"/>
@@ -27024,7 +27923,7 @@
     </row>
     <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="B336" s="9" t="str">
         <f t="shared" si="10"/>
@@ -27037,7 +27936,7 @@
     </row>
     <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B337" s="9" t="str">
         <f t="shared" si="10"/>
@@ -27050,7 +27949,7 @@
     </row>
     <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="B338" s="9" t="str">
         <f t="shared" si="10"/>
@@ -27061,13 +27960,13 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>334</v>
+        <v>397</v>
       </c>
       <c r="B339" s="9" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C339" s="9" t="str">
         <f t="shared" si="11"/>
@@ -27076,7 +27975,7 @@
     </row>
     <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="B340" s="9" t="str">
         <f t="shared" si="10"/>
@@ -27089,7 +27988,7 @@
     </row>
     <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="B341" s="9" t="str">
         <f t="shared" si="10"/>
@@ -27100,39 +27999,39 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="B342" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>Y</v>
+        <v/>
       </c>
       <c r="C342" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>337</v>
+        <v>398</v>
       </c>
       <c r="B343" s="9" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C343" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="B344" s="9" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="C344" s="9" t="str">
         <f t="shared" si="11"/>
@@ -27141,7 +28040,7 @@
     </row>
     <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="B345" s="9" t="str">
         <f t="shared" si="10"/>
@@ -27154,7 +28053,7 @@
     </row>
     <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="B346" s="9" t="str">
         <f t="shared" si="10"/>
@@ -27167,7 +28066,7 @@
     </row>
     <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="B347" s="9" t="str">
         <f t="shared" si="10"/>
@@ -27180,7 +28079,7 @@
     </row>
     <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="B348" s="9" t="str">
         <f t="shared" si="10"/>
@@ -27193,7 +28092,7 @@
     </row>
     <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="B349" s="9" t="str">
         <f t="shared" si="10"/>
@@ -27206,7 +28105,7 @@
     </row>
     <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B350" s="9" t="str">
         <f t="shared" si="10"/>
@@ -27219,7 +28118,7 @@
     </row>
     <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B351" s="9" t="str">
         <f t="shared" si="10"/>
@@ -27232,7 +28131,7 @@
     </row>
     <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="B352" s="9" t="str">
         <f t="shared" si="10"/>
@@ -27245,7 +28144,7 @@
     </row>
     <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>65</v>
+        <v>326</v>
       </c>
       <c r="B353" s="9" t="str">
         <f t="shared" si="10"/>
@@ -27256,9 +28155,441 @@
         <v/>
       </c>
     </row>
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>327</v>
+      </c>
+      <c r="B354" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C354" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>328</v>
+      </c>
+      <c r="B355" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C355" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>64</v>
+      </c>
+      <c r="B356" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C356" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>329</v>
+      </c>
+      <c r="B357" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C357" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>330</v>
+      </c>
+      <c r="B358" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C358" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>331</v>
+      </c>
+      <c r="B359" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C359" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>332</v>
+      </c>
+      <c r="B360" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C360" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>333</v>
+      </c>
+      <c r="B361" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C361" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>334</v>
+      </c>
+      <c r="B362" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C362" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>335</v>
+      </c>
+      <c r="B363" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C363" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>336</v>
+      </c>
+      <c r="B364" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C364" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>359</v>
+      </c>
+      <c r="B365" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>Y</v>
+      </c>
+      <c r="C365" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>337</v>
+      </c>
+      <c r="B366" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C366" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>338</v>
+      </c>
+      <c r="B367" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C367" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>339</v>
+      </c>
+      <c r="B368" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C368" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>340</v>
+      </c>
+      <c r="B369" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C369" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>341</v>
+      </c>
+      <c r="B370" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C370" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>342</v>
+      </c>
+      <c r="B371" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C371" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>343</v>
+      </c>
+      <c r="B372" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C372" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>344</v>
+      </c>
+      <c r="B373" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C373" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>345</v>
+      </c>
+      <c r="B374" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C374" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>346</v>
+      </c>
+      <c r="B375" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C375" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>400</v>
+      </c>
+      <c r="B376" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>Y</v>
+      </c>
+      <c r="C376" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>65</v>
+      </c>
+      <c r="B377" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C377" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C353">
-    <filterColumn colId="1">
+  <autoFilter ref="A1:C377">
+    <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>

--- a/Command Coverage.xlsx
+++ b/Command Coverage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="255" windowWidth="23580" windowHeight="11370" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="255" windowWidth="23580" windowHeight="11370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Command List v6 LTS" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4591" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4567" uniqueCount="402">
   <si>
     <t>Add-SafeguardAccountGroupMember</t>
   </si>
@@ -1633,10 +1633,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1724,7 +1725,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>71</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>Find</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>74</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>Revoke</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>81</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>Add</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1935,7 @@
         <v>Add</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -1958,7 +1959,7 @@
         <v>Add</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>Add</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>83</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -2054,7 +2055,7 @@
         <v>Add</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>85</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>Add</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>86</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>Approve</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>87</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>Assert</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>88</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>Clear</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>89</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>Clear</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>Clear</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>91</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>Clear</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>Clear</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>93</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>Clear</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>94</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>Close</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>Connect</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>95</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>Copy</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>96</v>
       </c>
@@ -2360,7 +2361,7 @@
         <v>Copy</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>97</v>
       </c>
@@ -2384,7 +2385,7 @@
         <v>Copy</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>98</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>Copy</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>99</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>Copy</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>100</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>Deny</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>101</v>
       </c>
@@ -2480,7 +2481,7 @@
         <v>Disable</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>102</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>Disable</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>103</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>Disable</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>104</v>
       </c>
@@ -2546,7 +2547,7 @@
         <v>Disable</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>105</v>
       </c>
@@ -2570,7 +2571,7 @@
         <v>Disable</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>106</v>
       </c>
@@ -2594,7 +2595,7 @@
         <v>Disable</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
@@ -2618,7 +2619,7 @@
         <v>Disconnect</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>107</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>108</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>109</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>110</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>111</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>112</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>113</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>114</v>
       </c>
@@ -2807,7 +2808,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>115</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>116</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>117</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>118</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>369</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>370</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>119</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>120</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>121</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
@@ -3032,7 +3033,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>123</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>Enable</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>124</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>Enable</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>125</v>
       </c>
@@ -3149,7 +3150,7 @@
         <v>Enable</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>126</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>Enable</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>127</v>
       </c>
@@ -3191,7 +3192,7 @@
         <v>Enable</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>128</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>Enable</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>129</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>Enable</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>130</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>Enter</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>131</v>
       </c>
@@ -3287,7 +3288,7 @@
         <v>Exit</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>132</v>
       </c>
@@ -3308,7 +3309,7 @@
         <v>Export</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>133</v>
       </c>
@@ -3332,7 +3333,7 @@
         <v>Find</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>134</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>Find</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>Find</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>136</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>Find</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>137</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>Find</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>138</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>Find</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>139</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>Find</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>140</v>
       </c>
@@ -3491,7 +3492,7 @@
         <v>Find</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>141</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>Find</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>142</v>
       </c>
@@ -3539,7 +3540,7 @@
         <v>Find</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>143</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>144</v>
       </c>
@@ -3584,7 +3585,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>145</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>146</v>
       </c>
@@ -3632,7 +3633,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>147</v>
       </c>
@@ -3656,7 +3657,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>148</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>149</v>
       </c>
@@ -3704,7 +3705,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>150</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>151</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>152</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>153</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>154</v>
       </c>
@@ -3824,7 +3825,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>155</v>
       </c>
@@ -3848,7 +3849,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>156</v>
       </c>
@@ -3869,7 +3870,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>157</v>
       </c>
@@ -3890,7 +3891,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>158</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>159</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>160</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>161</v>
       </c>
@@ -3974,7 +3975,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>162</v>
       </c>
@@ -3998,7 +3999,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>163</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>164</v>
       </c>
@@ -4043,7 +4044,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>165</v>
       </c>
@@ -4067,7 +4068,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>166</v>
       </c>
@@ -4091,7 +4092,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>167</v>
       </c>
@@ -4115,7 +4116,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>168</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>169</v>
       </c>
@@ -4163,7 +4164,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>170</v>
       </c>
@@ -4187,7 +4188,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>171</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>172</v>
       </c>
@@ -4235,7 +4236,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>173</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>174</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>175</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>7</v>
       </c>
@@ -4331,7 +4332,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>8</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>9</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>10</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>11</v>
       </c>
@@ -4427,7 +4428,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>176</v>
       </c>
@@ -4451,7 +4452,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>12</v>
       </c>
@@ -4475,7 +4476,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>13</v>
       </c>
@@ -4499,7 +4500,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>177</v>
       </c>
@@ -4523,7 +4524,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>178</v>
       </c>
@@ -4547,7 +4548,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>179</v>
       </c>
@@ -4571,7 +4572,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>180</v>
       </c>
@@ -4595,7 +4596,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>14</v>
       </c>
@@ -4619,7 +4620,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>181</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>15</v>
       </c>
@@ -4667,7 +4668,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>16</v>
       </c>
@@ -4691,7 +4692,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>17</v>
       </c>
@@ -4715,7 +4716,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>18</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>19</v>
       </c>
@@ -4757,7 +4758,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>20</v>
       </c>
@@ -4778,7 +4779,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>21</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>22</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>23</v>
       </c>
@@ -4841,7 +4842,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>24</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>25</v>
       </c>
@@ -4883,7 +4884,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>182</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>183</v>
       </c>
@@ -4931,7 +4932,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>184</v>
       </c>
@@ -4955,7 +4956,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>185</v>
       </c>
@@ -4979,7 +4980,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>186</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>187</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>188</v>
       </c>
@@ -5042,7 +5043,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>189</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>360</v>
       </c>
@@ -5084,7 +5085,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>190</v>
       </c>
@@ -5105,7 +5106,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>26</v>
       </c>
@@ -5129,7 +5130,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>371</v>
       </c>
@@ -5150,7 +5151,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>372</v>
       </c>
@@ -5171,7 +5172,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>191</v>
       </c>
@@ -5192,7 +5193,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>192</v>
       </c>
@@ -5216,7 +5217,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>193</v>
       </c>
@@ -5240,7 +5241,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>194</v>
       </c>
@@ -5264,7 +5265,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>27</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>28</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>29</v>
       </c>
@@ -5336,7 +5337,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>30</v>
       </c>
@@ -5360,7 +5361,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>31</v>
       </c>
@@ -5384,7 +5385,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>195</v>
       </c>
@@ -5408,7 +5409,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>196</v>
       </c>
@@ -5432,7 +5433,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>197</v>
       </c>
@@ -5456,7 +5457,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>32</v>
       </c>
@@ -5480,7 +5481,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>198</v>
       </c>
@@ -5504,7 +5505,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>199</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>200</v>
       </c>
@@ -5552,7 +5553,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>201</v>
       </c>
@@ -5573,7 +5574,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>202</v>
       </c>
@@ -5597,7 +5598,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>203</v>
       </c>
@@ -5618,7 +5619,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>204</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>33</v>
       </c>
@@ -5663,7 +5664,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>34</v>
       </c>
@@ -5687,7 +5688,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>35</v>
       </c>
@@ -5711,7 +5712,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>36</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>37</v>
       </c>
@@ -5759,7 +5760,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>38</v>
       </c>
@@ -5783,7 +5784,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>39</v>
       </c>
@@ -5807,7 +5808,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>40</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>41</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>42</v>
       </c>
@@ -5879,7 +5880,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>205</v>
       </c>
@@ -5930,7 +5931,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>207</v>
       </c>
@@ -5951,7 +5952,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>208</v>
       </c>
@@ -5972,7 +5973,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>209</v>
       </c>
@@ -6074,7 +6075,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>213</v>
       </c>
@@ -6122,7 +6123,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>43</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>44</v>
       </c>
@@ -6170,7 +6171,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>45</v>
       </c>
@@ -6194,7 +6195,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>215</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>216</v>
       </c>
@@ -6242,7 +6243,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>46</v>
       </c>
@@ -6266,7 +6267,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>217</v>
       </c>
@@ -6290,7 +6291,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>47</v>
       </c>
@@ -6314,7 +6315,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>218</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>48</v>
       </c>
@@ -6362,7 +6363,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>49</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>50</v>
       </c>
@@ -6410,7 +6411,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>51</v>
       </c>
@@ -6434,7 +6435,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>219</v>
       </c>
@@ -6458,7 +6459,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>220</v>
       </c>
@@ -6482,7 +6483,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>221</v>
       </c>
@@ -6503,7 +6504,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>52</v>
       </c>
@@ -6527,7 +6528,7 @@
         <v>Get</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>222</v>
       </c>
@@ -6548,7 +6549,7 @@
         <v>Import</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>223</v>
       </c>
@@ -6572,7 +6573,7 @@
         <v>Install</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>224</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>Install</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>225</v>
       </c>
@@ -6620,7 +6621,7 @@
         <v>Install</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>226</v>
       </c>
@@ -6641,7 +6642,7 @@
         <v>Install</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>227</v>
       </c>
@@ -6665,7 +6666,7 @@
         <v>Install</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>228</v>
       </c>
@@ -6689,7 +6690,7 @@
         <v>Install</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>229</v>
       </c>
@@ -6713,7 +6714,7 @@
         <v>Install</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>230</v>
       </c>
@@ -6737,7 +6738,7 @@
         <v>Invoke</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>231</v>
       </c>
@@ -6761,7 +6762,7 @@
         <v>Invoke</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>232</v>
       </c>
@@ -6785,7 +6786,7 @@
         <v>Invoke</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>233</v>
       </c>
@@ -6806,7 +6807,7 @@
         <v>Invoke</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>234</v>
       </c>
@@ -6827,7 +6828,7 @@
         <v>Invoke</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>235</v>
       </c>
@@ -6848,7 +6849,7 @@
         <v>Invoke</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>236</v>
       </c>
@@ -6869,7 +6870,7 @@
         <v>Invoke</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>237</v>
       </c>
@@ -6893,7 +6894,7 @@
         <v>Invoke</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>238</v>
       </c>
@@ -6914,7 +6915,7 @@
         <v>Invoke</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>239</v>
       </c>
@@ -6938,7 +6939,7 @@
         <v>Invoke</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>240</v>
       </c>
@@ -6962,7 +6963,7 @@
         <v>Invoke</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>241</v>
       </c>
@@ -6986,7 +6987,7 @@
         <v>Invoke</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>242</v>
       </c>
@@ -7064,7 +7065,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>245</v>
       </c>
@@ -7088,7 +7089,7 @@
         <v>Invoke</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>246</v>
       </c>
@@ -7112,7 +7113,7 @@
         <v>Invoke</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>247</v>
       </c>
@@ -7133,7 +7134,7 @@
         <v>Join</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>248</v>
       </c>
@@ -7157,7 +7158,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>249</v>
       </c>
@@ -7181,7 +7182,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>250</v>
       </c>
@@ -7205,7 +7206,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>53</v>
       </c>
@@ -7229,7 +7230,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>251</v>
       </c>
@@ -7253,7 +7254,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>252</v>
       </c>
@@ -7277,7 +7278,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>54</v>
       </c>
@@ -7301,7 +7302,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>55</v>
       </c>
@@ -7325,7 +7326,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>253</v>
       </c>
@@ -7349,7 +7350,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>56</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>254</v>
       </c>
@@ -7397,7 +7398,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>255</v>
       </c>
@@ -7418,7 +7419,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>256</v>
       </c>
@@ -7439,7 +7440,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>257</v>
       </c>
@@ -7460,7 +7461,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>258</v>
       </c>
@@ -7481,7 +7482,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>259</v>
       </c>
@@ -7502,7 +7503,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>260</v>
       </c>
@@ -7523,7 +7524,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>373</v>
       </c>
@@ -7544,7 +7545,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>374</v>
       </c>
@@ -7565,7 +7566,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>261</v>
       </c>
@@ -7586,7 +7587,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>262</v>
       </c>
@@ -7610,7 +7611,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>263</v>
       </c>
@@ -7634,7 +7635,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>264</v>
       </c>
@@ -7658,7 +7659,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>265</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>266</v>
       </c>
@@ -7706,7 +7707,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>267</v>
       </c>
@@ -7730,7 +7731,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>268</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>269</v>
       </c>
@@ -7778,7 +7779,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>270</v>
       </c>
@@ -7802,7 +7803,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>271</v>
       </c>
@@ -7826,7 +7827,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>272</v>
       </c>
@@ -7850,7 +7851,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>273</v>
       </c>
@@ -7871,7 +7872,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>57</v>
       </c>
@@ -7895,7 +7896,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>58</v>
       </c>
@@ -7919,7 +7920,7 @@
         <v>New</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>274</v>
       </c>
@@ -7943,7 +7944,7 @@
         <v>Open</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>275</v>
       </c>
@@ -7967,7 +7968,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>276</v>
       </c>
@@ -7991,7 +7992,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>59</v>
       </c>
@@ -8015,7 +8016,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>277</v>
       </c>
@@ -8036,7 +8037,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>278</v>
       </c>
@@ -8060,7 +8061,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>279</v>
       </c>
@@ -8084,7 +8085,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>60</v>
       </c>
@@ -8108,7 +8109,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
@@ -8132,7 +8133,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>61</v>
       </c>
@@ -8156,7 +8157,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>281</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>282</v>
       </c>
@@ -8204,7 +8205,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>283</v>
       </c>
@@ -8228,7 +8229,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>284</v>
       </c>
@@ -8249,7 +8250,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>285</v>
       </c>
@@ -8270,7 +8271,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>286</v>
       </c>
@@ -8291,7 +8292,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>287</v>
       </c>
@@ -8312,7 +8313,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>288</v>
       </c>
@@ -8333,7 +8334,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>289</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>290</v>
       </c>
@@ -8375,7 +8376,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>291</v>
       </c>
@@ -8399,7 +8400,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>292</v>
       </c>
@@ -8423,7 +8424,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>293</v>
       </c>
@@ -8447,7 +8448,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>294</v>
       </c>
@@ -8471,7 +8472,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>295</v>
       </c>
@@ -8519,7 +8520,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>297</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>62</v>
       </c>
@@ -8567,7 +8568,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>63</v>
       </c>
@@ -8591,7 +8592,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>298</v>
       </c>
@@ -8615,7 +8616,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>299</v>
       </c>
@@ -8636,7 +8637,7 @@
         <v>Remove</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>300</v>
       </c>
@@ -8660,7 +8661,7 @@
         <v>Rename</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>301</v>
       </c>
@@ -8684,7 +8685,7 @@
         <v>Rename</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>302</v>
       </c>
@@ -8708,7 +8709,7 @@
         <v>Rename</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>303</v>
       </c>
@@ -8732,7 +8733,7 @@
         <v>Rename</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>304</v>
       </c>
@@ -8780,7 +8781,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>306</v>
       </c>
@@ -8804,7 +8805,7 @@
         <v>Reset</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>307</v>
       </c>
@@ -8828,7 +8829,7 @@
         <v>Reset</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>308</v>
       </c>
@@ -8879,7 +8880,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>310</v>
       </c>
@@ -8900,7 +8901,7 @@
         <v>Restore</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>311</v>
       </c>
@@ -8921,7 +8922,7 @@
         <v>Save</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>312</v>
       </c>
@@ -8945,7 +8946,7 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>313</v>
       </c>
@@ -8969,7 +8970,7 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>314</v>
       </c>
@@ -8993,7 +8994,7 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>315</v>
       </c>
@@ -9017,7 +9018,7 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>316</v>
       </c>
@@ -9038,7 +9039,7 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>317</v>
       </c>
@@ -9062,7 +9063,7 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>318</v>
       </c>
@@ -9083,7 +9084,7 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>319</v>
       </c>
@@ -9107,7 +9108,7 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>320</v>
       </c>
@@ -9128,7 +9129,7 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>361</v>
       </c>
@@ -9149,7 +9150,7 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>321</v>
       </c>
@@ -9173,7 +9174,7 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>322</v>
       </c>
@@ -9197,7 +9198,7 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>323</v>
       </c>
@@ -9218,7 +9219,7 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>324</v>
       </c>
@@ -9266,7 +9267,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>326</v>
       </c>
@@ -9290,7 +9291,7 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>327</v>
       </c>
@@ -9314,7 +9315,7 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>328</v>
       </c>
@@ -9338,7 +9339,7 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>64</v>
       </c>
@@ -9362,7 +9363,7 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>329</v>
       </c>
@@ -9383,7 +9384,7 @@
         <v>Split</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>330</v>
       </c>
@@ -9407,7 +9408,7 @@
         <v>Start</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>331</v>
       </c>
@@ -9428,7 +9429,7 @@
         <v>Sync</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>332</v>
       </c>
@@ -9449,7 +9450,7 @@
         <v>Sync</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>333</v>
       </c>
@@ -9470,7 +9471,7 @@
         <v>Sync</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>334</v>
       </c>
@@ -9494,7 +9495,7 @@
         <v>Test</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>335</v>
       </c>
@@ -9515,7 +9516,7 @@
         <v>Test</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>336</v>
       </c>
@@ -9536,7 +9537,7 @@
         <v>Test</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>337</v>
       </c>
@@ -9557,7 +9558,7 @@
         <v>Test</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>338</v>
       </c>
@@ -9578,7 +9579,7 @@
         <v>Test</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>339</v>
       </c>
@@ -9602,7 +9603,7 @@
         <v>Test</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>340</v>
       </c>
@@ -9626,7 +9627,7 @@
         <v>Uninstall</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>341</v>
       </c>
@@ -9650,7 +9651,7 @@
         <v>Uninstall</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>342</v>
       </c>
@@ -9674,7 +9675,7 @@
         <v>Uninstall</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>343</v>
       </c>
@@ -9698,7 +9699,7 @@
         <v>Uninstall</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>344</v>
       </c>
@@ -9719,7 +9720,7 @@
         <v>Unlock</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>345</v>
       </c>
@@ -9743,7 +9744,7 @@
         <v>Update</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>346</v>
       </c>
@@ -9767,7 +9768,7 @@
         <v>Update</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>65</v>
       </c>
@@ -9793,6 +9794,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:H353">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState ref="A7:H353">
       <sortCondition ref="B7:B353"/>
       <sortCondition ref="A7:A353"/>
@@ -9807,7 +9813,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C358" sqref="C358"/>
     </sheetView>
@@ -23554,11 +23560,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C402"/>
+  <dimension ref="A1:C377"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A379" sqref="A379:A402"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -28467,126 +28473,6 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
-        <v>400</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:C377">
     <filterColumn colId="2">

--- a/Command Coverage.xlsx
+++ b/Command Coverage.xlsx
@@ -1408,9 +1408,9 @@
   <dimension ref="A1:H353"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="6" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D142" activeCellId="0" sqref="D142"/>
+      <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1418,7 +1418,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="63.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.32"/>
@@ -1441,11 +1441,11 @@
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">COUNTIF(C7:C353,"Yes")</f>
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C2" s="2" t="n">
         <f aca="false">B2/B1</f>
-        <v>0.780979827089337</v>
+        <v>0.806916426512968</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,11 +1454,11 @@
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">COUNTIF(D7:D353,"Yes")</f>
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="n">
         <f aca="false">B3/B1</f>
-        <v>0.219020172910663</v>
+        <v>0.193083573487032</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,7 +2603,7 @@
       <c r="B59" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -5516,9 +5516,10 @@
       <c r="B197" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C197" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="0"/>
       <c r="E197" s="1" t="s">
         <v>13</v>
       </c>
@@ -6278,7 +6279,7 @@
       <c r="B233" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E233" s="1" t="s">
@@ -6971,7 +6972,7 @@
       <c r="B266" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E266" s="1" t="s">
@@ -6992,7 +6993,7 @@
       <c r="B267" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="C267" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E267" s="1" t="s">
@@ -7646,7 +7647,7 @@
       <c r="B298" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D298" s="1" t="s">
+      <c r="C298" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E298" s="1" t="s">
@@ -8135,7 +8136,7 @@
       <c r="B321" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D321" s="1" t="s">
+      <c r="C321" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E321" s="1" t="s">
@@ -8362,14 +8363,14 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D332" s="1" t="s">
+      <c r="C332" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E332" s="1" t="s">
@@ -8383,14 +8384,14 @@
         <v>Set</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D333" s="1" t="s">
+      <c r="C333" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E333" s="1" t="s">
@@ -8860,7 +8861,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.66"/>
@@ -10971,13 +10972,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A66,'Command List v6 LTS'!$A$6:$A$353,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J66" s="6" t="n">
+      <c r="J66" s="6" t="str">
         <f aca="false">IF(I66="",VLOOKUP(A66,'Command List v6 LTS'!$A$7:$D$353,3,FALSE()),C66)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K66" s="6" t="str">
         <f aca="false">IF(I66="",IF(J66="Yes","",VLOOKUP(A66,'Command List v6 LTS'!$A$7:$D$353,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15665,13 +15666,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A204,'Command List v6 LTS'!$A$6:$A$353,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J204" s="6" t="n">
+      <c r="J204" s="6" t="str">
         <f aca="false">IF(I204="",VLOOKUP(A204,'Command List v6 LTS'!$A$7:$D$353,3,FALSE()),C204)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K204" s="6" t="str">
         <f aca="false">IF(I204="",IF(J204="Yes","",VLOOKUP(A204,'Command List v6 LTS'!$A$7:$D$353,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16893,13 +16894,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A240,'Command List v6 LTS'!$A$6:$A$353,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J240" s="6" t="n">
+      <c r="J240" s="6" t="str">
         <f aca="false">IF(I240="",VLOOKUP(A240,'Command List v6 LTS'!$A$7:$D$353,3,FALSE()),C240)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K240" s="6" t="str">
         <f aca="false">IF(I240="",IF(J240="Yes","",VLOOKUP(A240,'Command List v6 LTS'!$A$7:$D$353,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17973,13 +17974,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A272,'Command List v6 LTS'!$A$6:$A$353,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J272" s="6" t="n">
+      <c r="J272" s="6" t="str">
         <f aca="false">IF(I272="",VLOOKUP(A272,'Command List v6 LTS'!$A$7:$D$353,3,FALSE()),C272)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K272" s="6" t="str">
         <f aca="false">IF(I272="",IF(J272="Yes","",VLOOKUP(A272,'Command List v6 LTS'!$A$7:$D$353,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18007,13 +18008,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A273,'Command List v6 LTS'!$A$6:$A$353,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J273" s="6" t="n">
+      <c r="J273" s="6" t="str">
         <f aca="false">IF(I273="",VLOOKUP(A273,'Command List v6 LTS'!$A$7:$D$353,3,FALSE()),C273)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K273" s="6" t="str">
         <f aca="false">IF(I273="",IF(J273="Yes","",VLOOKUP(A273,'Command List v6 LTS'!$A$7:$D$353,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19029,13 +19030,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A303,'Command List v6 LTS'!$A$6:$A$353,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J303" s="6" t="n">
+      <c r="J303" s="6" t="str">
         <f aca="false">IF(I303="",VLOOKUP(A303,'Command List v6 LTS'!$A$7:$D$353,3,FALSE()),C303)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K303" s="6" t="str">
         <f aca="false">IF(I303="",IF(J303="Yes","",VLOOKUP(A303,'Command List v6 LTS'!$A$7:$D$353,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19779,13 +19780,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A325,'Command List v6 LTS'!$A$6:$A$353,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J325" s="6" t="n">
+      <c r="J325" s="6" t="str">
         <f aca="false">IF(I325="",VLOOKUP(A325,'Command List v6 LTS'!$A$7:$D$353,3,FALSE()),C325)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K325" s="6" t="str">
         <f aca="false">IF(I325="",IF(J325="Yes","",VLOOKUP(A325,'Command List v6 LTS'!$A$7:$D$353,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20155,13 +20156,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A336,'Command List v6 LTS'!$A$6:$A$353,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J336" s="6" t="n">
+      <c r="J336" s="6" t="str">
         <f aca="false">IF(I336="",VLOOKUP(A336,'Command List v6 LTS'!$A$7:$D$353,3,FALSE()),C336)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K336" s="6" t="str">
         <f aca="false">IF(I336="",IF(J336="Yes","",VLOOKUP(A336,'Command List v6 LTS'!$A$7:$D$353,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20189,13 +20190,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A337,'Command List v6 LTS'!$A$6:$A$353,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J337" s="6" t="n">
+      <c r="J337" s="6" t="str">
         <f aca="false">IF(I337="",VLOOKUP(A337,'Command List v6 LTS'!$A$7:$D$353,3,FALSE()),C337)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K337" s="6" t="str">
         <f aca="false">IF(I337="",IF(J337="Yes","",VLOOKUP(A337,'Command List v6 LTS'!$A$7:$D$353,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20930,7 +20931,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C353"/>
@@ -20941,7 +20942,7 @@
       <selection pane="bottomLeft" activeCell="A109" activeCellId="0" sqref="A109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
@@ -25536,13 +25537,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C353">
-    <filterColumn colId="1">
-      <customFilters and="true">
-        <customFilter operator="**none**" val=""/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C353"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Command Coverage.xlsx
+++ b/Command Coverage.xlsx
@@ -1408,12 +1408,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H354"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="6" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E344" activeCellId="0" sqref="E344"/>
+      <selection pane="bottomLeft" activeCell="D272" activeCellId="0" sqref="D272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1444,11 +1444,11 @@
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">COUNTIF(C7:C354,"Yes")</f>
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="C2" s="2" t="n">
         <f aca="false">B2/B1</f>
-        <v>0.804597701149425</v>
+        <v>0.844827586206896</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,11 +1457,11 @@
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">COUNTIF(D7:D354,"Yes")</f>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="n">
         <f aca="false">B3/B1</f>
-        <v>0.195402298850575</v>
+        <v>0.155172413793103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1511,7 +1511,7 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3047,7 +3047,7 @@
       <c r="B80" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -3068,7 +3068,7 @@
       <c r="B81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -3089,7 +3089,7 @@
       <c r="B82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -3110,7 +3110,7 @@
       <c r="B83" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -3131,7 +3131,7 @@
       <c r="B84" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -3152,7 +3152,7 @@
       <c r="B85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -3173,7 +3173,7 @@
       <c r="B86" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -3194,7 +3194,7 @@
       <c r="B87" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -6345,7 +6345,7 @@
       <c r="B236" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E236" s="1" t="s">
@@ -7101,7 +7101,7 @@
       <c r="B272" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="C272" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E272" s="1" t="s">
@@ -7884,7 +7884,7 @@
       <c r="B309" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D309" s="1" t="s">
+      <c r="C309" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E309" s="1" t="s">
@@ -7905,7 +7905,7 @@
       <c r="B310" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D310" s="1" t="s">
+      <c r="C310" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E310" s="1" t="s">
@@ -8034,7 +8034,7 @@
       <c r="B316" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D316" s="1" t="s">
+      <c r="C316" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E316" s="1" t="s">
@@ -8848,6 +8848,8 @@
         <v>Wait</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A6:H354">
     <sortState ref="A7:H354">
@@ -9233,13 +9235,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A14,'Command List v6 LTS'!$A$6:$A$354,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J14" s="6" t="n">
+      <c r="J14" s="6" t="str">
         <f aca="false">IF(I14="",VLOOKUP(A14,'Command List v6 LTS'!$A$7:$D$354,3,FALSE()),C14)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K14" s="6" t="str">
         <f aca="false">IF(I14="",IF(J14="Yes","",VLOOKUP(A14,'Command List v6 LTS'!$A$7:$D$354,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11709,13 +11711,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A87,'Command List v6 LTS'!$A$6:$A$354,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J87" s="6" t="n">
+      <c r="J87" s="6" t="str">
         <f aca="false">IF(I87="",VLOOKUP(A87,'Command List v6 LTS'!$A$7:$D$354,3,FALSE()),C87)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K87" s="6" t="str">
         <f aca="false">IF(I87="",IF(J87="Yes","",VLOOKUP(A87,'Command List v6 LTS'!$A$7:$D$354,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11743,13 +11745,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A88,'Command List v6 LTS'!$A$6:$A$354,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J88" s="6" t="n">
+      <c r="J88" s="6" t="str">
         <f aca="false">IF(I88="",VLOOKUP(A88,'Command List v6 LTS'!$A$7:$D$354,3,FALSE()),C88)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K88" s="6" t="str">
         <f aca="false">IF(I88="",IF(J88="Yes","",VLOOKUP(A88,'Command List v6 LTS'!$A$7:$D$354,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11777,13 +11779,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A89,'Command List v6 LTS'!$A$6:$A$354,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J89" s="6" t="n">
+      <c r="J89" s="6" t="str">
         <f aca="false">IF(I89="",VLOOKUP(A89,'Command List v6 LTS'!$A$7:$D$354,3,FALSE()),C89)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K89" s="6" t="str">
         <f aca="false">IF(I89="",IF(J89="Yes","",VLOOKUP(A89,'Command List v6 LTS'!$A$7:$D$354,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11811,13 +11813,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A90,'Command List v6 LTS'!$A$6:$A$354,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J90" s="6" t="n">
+      <c r="J90" s="6" t="str">
         <f aca="false">IF(I90="",VLOOKUP(A90,'Command List v6 LTS'!$A$7:$D$354,3,FALSE()),C90)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K90" s="6" t="str">
         <f aca="false">IF(I90="",IF(J90="Yes","",VLOOKUP(A90,'Command List v6 LTS'!$A$7:$D$354,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11845,13 +11847,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A91,'Command List v6 LTS'!$A$6:$A$354,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J91" s="6" t="n">
+      <c r="J91" s="6" t="str">
         <f aca="false">IF(I91="",VLOOKUP(A91,'Command List v6 LTS'!$A$7:$D$354,3,FALSE()),C91)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K91" s="6" t="str">
         <f aca="false">IF(I91="",IF(J91="Yes","",VLOOKUP(A91,'Command List v6 LTS'!$A$7:$D$354,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11879,13 +11881,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A92,'Command List v6 LTS'!$A$6:$A$354,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J92" s="6" t="n">
+      <c r="J92" s="6" t="str">
         <f aca="false">IF(I92="",VLOOKUP(A92,'Command List v6 LTS'!$A$7:$D$354,3,FALSE()),C92)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K92" s="6" t="str">
         <f aca="false">IF(I92="",IF(J92="Yes","",VLOOKUP(A92,'Command List v6 LTS'!$A$7:$D$354,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11913,13 +11915,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A93,'Command List v6 LTS'!$A$6:$A$354,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J93" s="6" t="n">
+      <c r="J93" s="6" t="str">
         <f aca="false">IF(I93="",VLOOKUP(A93,'Command List v6 LTS'!$A$7:$D$354,3,FALSE()),C93)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K93" s="6" t="str">
         <f aca="false">IF(I93="",IF(J93="Yes","",VLOOKUP(A93,'Command List v6 LTS'!$A$7:$D$354,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11947,13 +11949,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A94,'Command List v6 LTS'!$A$6:$A$354,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J94" s="6" t="n">
+      <c r="J94" s="6" t="str">
         <f aca="false">IF(I94="",VLOOKUP(A94,'Command List v6 LTS'!$A$7:$D$354,3,FALSE()),C94)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K94" s="6" t="str">
         <f aca="false">IF(I94="",IF(J94="Yes","",VLOOKUP(A94,'Command List v6 LTS'!$A$7:$D$354,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17019,13 +17021,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A243,'Command List v6 LTS'!$A$6:$A$354,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J243" s="6" t="n">
+      <c r="J243" s="6" t="str">
         <f aca="false">IF(I243="",VLOOKUP(A243,'Command List v6 LTS'!$A$7:$D$354,3,FALSE()),C243)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K243" s="6" t="str">
         <f aca="false">IF(I243="",IF(J243="Yes","",VLOOKUP(A243,'Command List v6 LTS'!$A$7:$D$354,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18201,13 +18203,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A278,'Command List v6 LTS'!$A$6:$A$354,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J278" s="6" t="n">
+      <c r="J278" s="6" t="str">
         <f aca="false">IF(I278="",VLOOKUP(A278,'Command List v6 LTS'!$A$7:$D$354,3,FALSE()),C278)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K278" s="6" t="str">
         <f aca="false">IF(I278="",IF(J278="Yes","",VLOOKUP(A278,'Command List v6 LTS'!$A$7:$D$354,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19427,13 +19429,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A314,'Command List v6 LTS'!$A$6:$A$354,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J314" s="6" t="n">
+      <c r="J314" s="6" t="str">
         <f aca="false">IF(I314="",VLOOKUP(A314,'Command List v6 LTS'!$A$7:$D$354,3,FALSE()),C314)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K314" s="6" t="str">
         <f aca="false">IF(I314="",IF(J314="Yes","",VLOOKUP(A314,'Command List v6 LTS'!$A$7:$D$354,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19461,13 +19463,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A315,'Command List v6 LTS'!$A$6:$A$354,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J315" s="6" t="n">
+      <c r="J315" s="6" t="str">
         <f aca="false">IF(I315="",VLOOKUP(A315,'Command List v6 LTS'!$A$7:$D$354,3,FALSE()),C315)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K315" s="6" t="str">
         <f aca="false">IF(I315="",IF(J315="Yes","",VLOOKUP(A315,'Command List v6 LTS'!$A$7:$D$354,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19633,13 +19635,13 @@
         <f aca="false">IF(ISNA(VLOOKUP(A320,'Command List v6 LTS'!$A$6:$A$354,1,FALSE())),"Yes","")</f>
         <v/>
       </c>
-      <c r="J320" s="6" t="n">
+      <c r="J320" s="6" t="str">
         <f aca="false">IF(I320="",VLOOKUP(A320,'Command List v6 LTS'!$A$7:$D$354,3,FALSE()),C320)</f>
-        <v>0</v>
+        <v>Yes</v>
       </c>
       <c r="K320" s="6" t="str">
         <f aca="false">IF(I320="",IF(J320="Yes","",VLOOKUP(A320,'Command List v6 LTS'!$A$7:$D$354,4,FALSE())),"")</f>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
